--- a/ssDNA_aas_unique.xlsx
+++ b/ssDNA_aas_unique.xlsx
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1368,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
